--- a/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/9.xlsx
+++ b/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/9.xlsx
@@ -669,10 +669,10 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>257</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>600.67</v>
       </c>
     </row>
